--- a/src/main/resources/testdata/crmpro/TestData.xlsx
+++ b/src/main/resources/testdata/crmpro/TestData.xlsx
@@ -4,39 +4,100 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="3315"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+070 Credito
+071 Debito
+072 Parcelado Loja
+074 BNDES
+377 Carnê e fatura</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>DtTransaction</t>
-  </si>
-  <si>
-    <t>NotaFiscal</t>
-  </si>
-  <si>
-    <t>VlrTotalNotaFiscal</t>
-  </si>
-  <si>
-    <t>Obs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Installment</t>
+  </si>
+  <si>
+    <t>CardScheme</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Value Date</t>
+  </si>
+  <si>
+    <t>Authorization Code</t>
+  </si>
+  <si>
+    <t>Terminal ID</t>
+  </si>
+  <si>
+    <t>Capture Method</t>
+  </si>
+  <si>
+    <t>ELO</t>
+  </si>
+  <si>
+    <t>PGW00DD6</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Tarja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,15 +106,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,20 +172,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -412,59 +485,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43160</v>
-      </c>
-      <c r="B2" s="1">
-        <v>314</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>67700001</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D2" s="3">
+        <v>213</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43140</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>704746</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43159</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>67700001</v>
       </c>
       <c r="C3" s="2">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D3" s="3">
+        <v>135</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43167</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>674537</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdata/crmpro/TestData.xlsx
+++ b/src/main/resources/testdata/crmpro/TestData.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Amount</t>
   </si>
@@ -91,13 +91,40 @@
   </si>
   <si>
     <t>Tarja</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect "Product Code"</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect "Terminal ID"</t>
+  </si>
+  <si>
+    <t>Inmetrics</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect Not Found in file</t>
+  </si>
+  <si>
+    <t>MerchantNotFound</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect Not Found in file - Not found WebSite</t>
+  </si>
+  <si>
+    <t>Merchant Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +160,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +186,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,19 +229,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -503,13 +571,15 @@
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -524,7 +594,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -533,63 +603,186 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>67700001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>71</v>
       </c>
       <c r="D2" s="3">
         <v>213</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>43140</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="5">
         <v>704746</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>67700001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>72</v>
       </c>
       <c r="D3" s="3">
         <v>135</v>
       </c>
-      <c r="E3" s="4">
-        <v>43167</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="7">
+        <v>43137</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>674537</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>67700001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3">
+        <v>426</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43374</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>704537</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <v>67700001</v>
+      </c>
+      <c r="C5" s="10">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3">
+        <v>270</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43380</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>746537</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10">
+        <v>67700001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3">
+        <v>483</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43380</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>746537</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/crmpro/TestData.xlsx
+++ b/src/main/resources/testdata/crmpro/TestData.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Amount</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Merchant Name</t>
+  </si>
+  <si>
+    <t>Merchant Web Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.inmetrics.com.br </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.notfound.com.br </t>
   </si>
 </sst>
 </file>
@@ -251,9 +260,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF0000CC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -554,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +581,11 @@
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,10 +617,13 @@
         <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -641,11 +654,14 @@
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -653,7 +669,7 @@
         <v>67700001</v>
       </c>
       <c r="C3" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3">
         <v>135</v>
@@ -676,18 +692,21 @@
       <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>67700001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>72</v>
       </c>
       <c r="D4" s="3">
@@ -711,11 +730,14 @@
       <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -723,7 +745,7 @@
         <v>67700001</v>
       </c>
       <c r="C5" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3">
         <v>270</v>
@@ -746,11 +768,14 @@
       <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -758,7 +783,7 @@
         <v>67700001</v>
       </c>
       <c r="C6" s="10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3">
         <v>483</v>
@@ -781,7 +806,10 @@
       <c r="J6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/main/resources/testdata/crmpro/TestData.xlsx
+++ b/src/main/resources/testdata/crmpro/TestData.xlsx
@@ -108,15 +108,6 @@
     <t>Inmetrics</t>
   </si>
   <si>
-    <t>Failed - Incorrect Not Found in file</t>
-  </si>
-  <si>
-    <t>MerchantNotFound</t>
-  </si>
-  <si>
-    <t>Failed - Incorrect Not Found in file - Not found WebSite</t>
-  </si>
-  <si>
     <t>Merchant Name</t>
   </si>
   <si>
@@ -126,14 +117,23 @@
     <t xml:space="preserve">http://www.inmetrics.com.br </t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.notfound.com.br </t>
+    <t>PGW00DD5</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect "Amount"</t>
+  </si>
+  <si>
+    <t>GPR01263</t>
+  </si>
+  <si>
+    <t>Failed - Incorrect "CaptureMethod Chip requires RecordType 0507 present"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +180,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,16 +248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +572,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,14 +588,14 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.85546875" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -604,7 +610,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -614,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
@@ -627,35 +633,35 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>67700001</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>71</v>
       </c>
-      <c r="D2" s="3">
-        <v>213</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="10">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
         <v>43140</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>704746</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>14</v>
@@ -665,35 +671,35 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>67700001</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
-        <v>135</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="10">
+        <v>150</v>
+      </c>
+      <c r="E3" s="6">
         <v>43137</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>674537</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
+      <c r="K3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>15</v>
@@ -703,35 +709,35 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>67700001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>72</v>
       </c>
-      <c r="D4" s="3">
-        <v>426</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="10">
+        <v>10.02</v>
+      </c>
+      <c r="E4" s="6">
         <v>43374</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>704537</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>23</v>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>16</v>
@@ -741,76 +747,76 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>67700001</v>
       </c>
-      <c r="C5" s="10">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="7">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12">
         <v>270</v>
       </c>
-      <c r="E5" s="9">
-        <v>43380</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="6">
+        <v>43110</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
-        <v>746537</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
+      <c r="G5" s="4">
+        <v>704537</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>23</v>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
-        <v>67700001</v>
-      </c>
-      <c r="C6" s="10">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3">
-        <v>483</v>
-      </c>
-      <c r="E6" s="9">
-        <v>43380</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="B6" s="7">
+        <v>24041964</v>
+      </c>
+      <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="10">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43137</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
-        <v>746537</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="G6" s="4">
+        <v>611867</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/crmpro/TestData.xlsx
+++ b/src/main/resources/testdata/crmpro/TestData.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>43140</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <v>704746</v>
